--- a/va_facility_data_2025-02-20/Buffalo VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Buffalo%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Buffalo VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Buffalo%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R75a66e2c1dc54f5380bb5b60d39fbb24"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R8522e42dd2ac4275afe1bad04fd458c8"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7ac0a8d23ac64bb2a0d1c5d4300990c7"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R814585cb34b94dba92e2142e3063f22f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcaaa15ef96c14946b78671dbd0075745"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R6dd3814c63c54c25b131e4c7e9dc56c2"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3e10b78a4ab94543a59acc62126e29d4"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rb0e1f86e20564d328b3d0943c0565dae"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re7ab7d82f7a84ce0b19d573e4d519f53"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rb5671c6fc0f943ca943f5de23fb7354e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcc739b3f52784c48aa1807004a4f97a4"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R06e43049d0b74d21939950e949184d41"/>
   </x:sheets>
 </x:workbook>
 </file>
